--- a/common-npoi/src/main/resources/xlsx/demo_each.xlsx
+++ b/common-npoi/src/main/resources/xlsx/demo_each.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\ideaworkspace\ws1\spring-boot-2-common\common-poi\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitcheck\github\common-modules\common-npoi\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CAFAD73E-7F8B-4B1A-A33F-D14003993B82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E730B79-A826-4CFB-94BA-057E62C8934F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1152" windowWidth="13452" windowHeight="7152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -521,7 +521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
@@ -530,17 +532,18 @@
     <col min="3" max="3" width="22.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -551,12 +554,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>

--- a/common-npoi/src/main/resources/xlsx/demo_each.xlsx
+++ b/common-npoi/src/main/resources/xlsx/demo_each.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitcheck\github\common-modules\common-npoi\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E730B79-A826-4CFB-94BA-057E62C8934F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D35CE54-9900-4231-A578-21A28DBECC08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1152" windowWidth="13452" windowHeight="7152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>生成日期${printDate}</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>${detail.user}</t>
-  </si>
-  <si>
-    <t>detail开始行：${detailStartRowNo}</t>
   </si>
   <si>
     <t>#foreach detail in ${list}</t>
@@ -519,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -539,7 +536,7 @@
     </row>
     <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -556,12 +553,12 @@
     </row>
     <row r="5" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -572,12 +569,15 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
-        <v>6</v>
+      <c r="B9" s="5"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12333</v>
       </c>
     </row>
   </sheetData>

--- a/common-npoi/src/main/resources/xlsx/demo_each.xlsx
+++ b/common-npoi/src/main/resources/xlsx/demo_each.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\gitcheck\github\common-modules\common-npoi\src\main\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D35CE54-9900-4231-A578-21A28DBECC08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0418377-FB7B-44D4-AC7B-E3D880B51C30}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1152" windowWidth="13452" windowHeight="7152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>生成日期${printDate}</t>
   </si>
@@ -42,19 +42,70 @@
     <t>${detail.user}</t>
   </si>
   <si>
+    <t>${detail.name}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户姓名${model.name}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#end</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>结尾标志</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iftag false</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iftag false data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iftag true</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>iftag true data</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>#if ${notlist}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#if ${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>#foreach detail in ${list}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${detail.name}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户姓名${model.name}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>#end</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -62,7 +113,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +157,30 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -159,7 +234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -176,6 +251,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -536,48 +620,92 @@
     </row>
     <row r="2" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="8" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="15" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>12333</v>
       </c>
     </row>
   </sheetData>
